--- a/verifiche/amoruso.xlsx
+++ b/verifiche/amoruso.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano.buscherini_t\PycharmProjects\CorrezioneExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano.buscherini_t\PycharmProjects\CorrezioneExcel\verifiche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D59D122-8C14-4C91-857B-4749A376A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A40655-B3E3-45BA-A885-18F4ADA82D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio0" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
@@ -385,15 +385,15 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,90)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:F17" ca="1" si="0">RANDBETWEEN(1,90)</f>
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -402,15 +402,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="1">RANDBETWEEN(1,90)</f>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -419,15 +419,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -436,15 +436,15 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -453,15 +453,15 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -470,15 +470,15 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -487,15 +487,15 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -504,15 +504,15 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -521,15 +521,15 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -538,15 +538,15 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -555,15 +555,15 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -572,15 +572,15 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -589,15 +589,15 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,15 +606,15 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -623,15 +623,15 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -640,15 +640,15 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -657,15 +657,15 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:F81" ca="1" si="2">RANDBETWEEN(1,90)</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -674,15 +674,15 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,15 +691,15 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,15 +708,15 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -725,15 +725,15 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -742,15 +742,15 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -759,15 +759,15 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -776,15 +776,15 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -793,15 +793,15 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -810,15 +810,15 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,15 +827,15 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,15 +844,15 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -861,11 +861,11 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
@@ -878,15 +878,15 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,15 +895,15 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,15 +912,15 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -929,15 +929,15 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,15 +946,15 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -963,15 +963,15 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,15 +980,15 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -997,15 +997,15 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1014,15 +1014,15 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,15 +1031,15 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,15 +1048,15 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,15 +1065,15 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1082,15 +1082,15 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,15 +1099,15 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1116,15 +1116,15 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1133,15 +1133,15 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,15 +1150,15 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1167,15 +1167,15 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,15 +1184,15 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,15 +1201,15 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,15 +1218,15 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,15 +1235,15 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,15 +1252,15 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,15 +1269,15 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="2"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1320,15 +1320,15 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,15 +1337,15 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1354,15 +1354,15 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,15 +1371,15 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1388,15 +1388,15 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,15 +1405,15 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1422,15 +1422,15 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,15 +1439,15 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,15 +1456,15 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,15 +1473,15 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1490,15 +1490,15 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B101" ca="1" si="3">RANDBETWEEN(1,90)</f>
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1507,15 +1507,15 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1524,15 +1524,15 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,15 +1541,15 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="2"/>
         <v>30</v>
       </c>
-      <c r="D70">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
-      </c>
       <c r="F70">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1558,15 +1558,15 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1575,15 +1575,15 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1592,15 +1592,15 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1609,15 +1609,15 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,15 +1626,15 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,15 +1643,15 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1660,15 +1660,15 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1677,15 +1677,15 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,15 +1694,15 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,15 +1711,15 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -1728,15 +1728,15 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,15 +1745,15 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D82">
         <f t="shared" ref="D82:F101" ca="1" si="4">RANDBETWEEN(1,90)</f>
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -1762,15 +1762,15 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,15 +1779,15 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -1796,15 +1796,15 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="4"/>
         <v>7</v>
-      </c>
-      <c r="F85">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -1813,15 +1813,15 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -1830,15 +1830,15 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,15 +1847,15 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,11 +1864,11 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="4"/>
@@ -1881,15 +1881,15 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,15 +1898,15 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,15 +1915,15 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -1932,15 +1932,15 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -1949,11 +1949,11 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="4"/>
@@ -1966,15 +1966,15 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -1983,15 +1983,15 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2000,15 +2000,15 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,15 +2017,15 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2034,15 +2034,15 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,15 +2051,15 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2068,15 +2068,15 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2084,8 +2084,8 @@
         <v>0</v>
       </c>
       <c r="B103">
-        <f ca="1">SUM(B2:B102)</f>
-        <v>4695</v>
+        <f ca="1" xml:space="preserve"> SUM( B2:B102)</f>
+        <v>4759</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="F103">
         <f ca="1">MIN(F2:F101)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2111,7 +2111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96235A4A-759E-43CE-81E8-644EC1C3E8DE}">
   <dimension ref="B1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
